--- a/salidas/pred2016.xlsx
+++ b/salidas/pred2016.xlsx
@@ -746,7 +746,7 @@
         <v>45</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -866,7 +866,7 @@
         <v>61</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -962,7 +962,7 @@
         <v>75</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -1426,7 +1426,7 @@
         <v>142</v>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -2898,7 +2898,7 @@
         <v>363</v>
       </c>
       <c r="B308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309">
@@ -2922,7 +2922,7 @@
         <v>366</v>
       </c>
       <c r="B311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
@@ -3042,7 +3042,7 @@
         <v>382</v>
       </c>
       <c r="B326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
@@ -5306,7 +5306,7 @@
         <v>733</v>
       </c>
       <c r="B609" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610">
@@ -5314,7 +5314,7 @@
         <v>734</v>
       </c>
       <c r="B610" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611">
@@ -5410,7 +5410,7 @@
         <v>747</v>
       </c>
       <c r="B622" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623">
@@ -5794,7 +5794,7 @@
         <v>809</v>
       </c>
       <c r="B670" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671">
@@ -5802,7 +5802,7 @@
         <v>810</v>
       </c>
       <c r="B671" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672">
@@ -6258,7 +6258,7 @@
         <v>875</v>
       </c>
       <c r="B728" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729">
@@ -6698,7 +6698,7 @@
         <v>936</v>
       </c>
       <c r="B783" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="784">
@@ -7938,7 +7938,7 @@
         <v>1125</v>
       </c>
       <c r="B938" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="939">
@@ -8266,7 +8266,7 @@
         <v>1169</v>
       </c>
       <c r="B979" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="980">
@@ -8506,7 +8506,7 @@
         <v>1203</v>
       </c>
       <c r="B1009" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1010">
@@ -8818,7 +8818,7 @@
         <v>1252</v>
       </c>
       <c r="B1048" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1049">
@@ -9042,7 +9042,7 @@
         <v>1285</v>
       </c>
       <c r="B1076" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1077">
@@ -9818,7 +9818,7 @@
         <v>1397</v>
       </c>
       <c r="B1173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1174">
@@ -10610,7 +10610,7 @@
         <v>1515</v>
       </c>
       <c r="B1272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1273">
@@ -10730,7 +10730,7 @@
         <v>1531</v>
       </c>
       <c r="B1287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1288">
@@ -10826,7 +10826,7 @@
         <v>1545</v>
       </c>
       <c r="B1299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1300">
@@ -11290,7 +11290,7 @@
         <v>1612</v>
       </c>
       <c r="B1357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1358">
@@ -12762,7 +12762,7 @@
         <v>1833</v>
       </c>
       <c r="B1541" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1542">
@@ -12786,7 +12786,7 @@
         <v>1836</v>
       </c>
       <c r="B1544" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1545">
@@ -12906,7 +12906,7 @@
         <v>1852</v>
       </c>
       <c r="B1559" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1560">
@@ -15170,7 +15170,7 @@
         <v>2203</v>
       </c>
       <c r="B1842" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1843">
@@ -15178,7 +15178,7 @@
         <v>2204</v>
       </c>
       <c r="B1843" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1844">
@@ -15274,7 +15274,7 @@
         <v>2217</v>
       </c>
       <c r="B1855" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1856">
@@ -15658,7 +15658,7 @@
         <v>2279</v>
       </c>
       <c r="B1903" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1904">
@@ -15666,7 +15666,7 @@
         <v>2280</v>
       </c>
       <c r="B1904" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1905">
@@ -16122,7 +16122,7 @@
         <v>2345</v>
       </c>
       <c r="B1961" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1962">
@@ -16562,7 +16562,7 @@
         <v>2406</v>
       </c>
       <c r="B2016" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2017">
@@ -17802,7 +17802,7 @@
         <v>2595</v>
       </c>
       <c r="B2171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2172">
@@ -18130,7 +18130,7 @@
         <v>2639</v>
       </c>
       <c r="B2212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2213">
@@ -18370,7 +18370,7 @@
         <v>2673</v>
       </c>
       <c r="B2242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2243">
@@ -18682,7 +18682,7 @@
         <v>2722</v>
       </c>
       <c r="B2281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2282">
@@ -18906,7 +18906,7 @@
         <v>2755</v>
       </c>
       <c r="B2309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2310">
@@ -19682,7 +19682,7 @@
         <v>2867</v>
       </c>
       <c r="B2406" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2407">
@@ -20474,7 +20474,7 @@
         <v>2985</v>
       </c>
       <c r="B2505" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2506">
@@ -20594,7 +20594,7 @@
         <v>3001</v>
       </c>
       <c r="B2520" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2521">
@@ -20690,7 +20690,7 @@
         <v>3015</v>
       </c>
       <c r="B2532" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2533">
@@ -21154,7 +21154,7 @@
         <v>3082</v>
       </c>
       <c r="B2590" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2591">
@@ -22626,7 +22626,7 @@
         <v>3303</v>
       </c>
       <c r="B2774" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2775">
@@ -22650,7 +22650,7 @@
         <v>3306</v>
       </c>
       <c r="B2777" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2778">
@@ -22770,7 +22770,7 @@
         <v>3322</v>
       </c>
       <c r="B2792" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2793">
@@ -25034,7 +25034,7 @@
         <v>3673</v>
       </c>
       <c r="B3075" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3076">
@@ -25042,7 +25042,7 @@
         <v>3674</v>
       </c>
       <c r="B3076" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3077">
@@ -25138,7 +25138,7 @@
         <v>3687</v>
       </c>
       <c r="B3088" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3089">
@@ -25522,7 +25522,7 @@
         <v>3749</v>
       </c>
       <c r="B3136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3137">
@@ -25530,7 +25530,7 @@
         <v>3750</v>
       </c>
       <c r="B3137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3138">
@@ -25986,7 +25986,7 @@
         <v>3815</v>
       </c>
       <c r="B3194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3195">
@@ -26426,7 +26426,7 @@
         <v>3876</v>
       </c>
       <c r="B3249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3250">
@@ -27666,7 +27666,7 @@
         <v>4065</v>
       </c>
       <c r="B3404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3405">
@@ -27994,7 +27994,7 @@
         <v>4109</v>
       </c>
       <c r="B3445" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3446">
@@ -28234,7 +28234,7 @@
         <v>4143</v>
       </c>
       <c r="B3475" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3476">
@@ -28546,7 +28546,7 @@
         <v>4192</v>
       </c>
       <c r="B3514" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3515">
@@ -28738,7 +28738,7 @@
         <v>4220</v>
       </c>
       <c r="B3538" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3539">
@@ -28770,7 +28770,7 @@
         <v>4225</v>
       </c>
       <c r="B3542" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3543">
@@ -29546,7 +29546,7 @@
         <v>4337</v>
       </c>
       <c r="B3639" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3640">
@@ -30986,7 +30986,7 @@
         <v>5105</v>
       </c>
       <c r="B3819" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3820">
@@ -31674,7 +31674,7 @@
         <v>5659</v>
       </c>
       <c r="B3905" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3906">
@@ -32882,7 +32882,7 @@
         <v>6575</v>
       </c>
       <c r="B4056" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4057">
@@ -33570,7 +33570,7 @@
         <v>7129</v>
       </c>
       <c r="B4142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4143">
@@ -34778,7 +34778,7 @@
         <v>8045</v>
       </c>
       <c r="B4293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4294">
@@ -35466,7 +35466,7 @@
         <v>8599</v>
       </c>
       <c r="B4379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4380">
